--- a/mbs-perturbation/bottleneck/decisionTree/bottleneck-decisionTree-results.xlsx
+++ b/mbs-perturbation/bottleneck/decisionTree/bottleneck-decisionTree-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1137724550898204</v>
+        <v>0.1162790697674419</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2043010752688172</v>
+        <v>0.2054794520547945</v>
       </c>
       <c r="E2" t="n">
-        <v>0.655813953488372</v>
+        <v>0.4252701080432173</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2790697674418605</v>
+        <v>0.5</v>
       </c>
       <c r="C3" t="n">
-        <v>0.631578947368421</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3870967741935483</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6596083231334149</v>
+        <v>0.5981392557022809</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.125</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.07999999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7337209302325581</v>
+        <v>0.9544494720965309</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7488372093023257</v>
+        <v>0.6497737556561087</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5277777777777778</v>
+        <v>0.6123680241327301</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6785684445063362</v>
+        <v>0.2982558139534884</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5374269005847954</v>
+        <v>0.2823529411764706</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4059988681380871</v>
+        <v>0.1883128216278901</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6651516387868897</v>
+        <v>0.6480001231261736</v>
       </c>
     </row>
   </sheetData>
